--- a/BalanceSheet/RF_bal.xlsx
+++ b/BalanceSheet/RF_bal.xlsx
@@ -3999,7 +3999,7 @@
         <v>8000000000.0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>6329000000.0</v>
+        <v>7687000000.0</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>4061000000.0</v>
@@ -4126,7 +4126,7 @@
         <v>13255000000.0</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>10443000000.0</v>
+        <v>11801000000.0</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>9128000000.0</v>
